--- a/ResearchPapers.xlsx
+++ b/ResearchPapers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF419C64-354A-41DC-BBE7-1B8C30F47FCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965181B2-CF14-4AFC-BE50-43329498ACA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>S.NO</t>
   </si>
@@ -133,16 +133,126 @@
   <si>
     <t>channel frequency response,Parametric model,low density parity check,canonical distribution</t>
   </si>
+  <si>
+    <t>Reshma</t>
+  </si>
+  <si>
+    <t>Bhargavi</t>
+  </si>
+  <si>
+    <t>Channel estimation for LTE downlink receiver System performance</t>
+  </si>
+  <si>
+    <t>Prabhakaran N, Siva Kannan N, Dennilo Fernandes J, Thirugnanan G</t>
+  </si>
+  <si>
+    <t>Journal of Engineering research and Application</t>
+  </si>
+  <si>
+    <t>1.In this paper, the basic concepts of OFDM, MIMO systems are addressed        2.The various channel estimation techniques
+ such as training based, blind channel, semi-blind
+ channel based algorithms are discussed. Also
+ different optimization techniques, such as DecisionDirected Channel Estimation Implementation for
+ Spectral Efficiency Improvement in Mobile MIMOOFDM, Adaptive Channel Estimation Techniques for MIMO-OFDM Systems are reviewed for training
+ based channel estimation algorithms.</t>
+  </si>
+  <si>
+    <t>Spectral Efficiency, Channel State
+ information, Pilot Carriers,MMSE(Minimum Mean Squared Error)</t>
+  </si>
+  <si>
+    <t>No Graph</t>
+  </si>
+  <si>
+    <t>Channel Estimation Techniques in MIMO-OFDM LTE System</t>
+  </si>
+  <si>
+    <t>P.Venkateswarlu, R.Nagendhra</t>
+  </si>
+  <si>
+    <t>International Journal of Engineering and Technologyering research and Application</t>
+  </si>
+  <si>
+    <t>BER,Eb/N0
+ information, Pilot Carriers,MMSE(Minimum Mean Squared Error)</t>
+  </si>
+  <si>
+    <t>The graph is drawn between SNR(dB) and BER.</t>
+  </si>
+  <si>
+    <t>The high information rates and the high limit can be accomplished</t>
+  </si>
+  <si>
+    <t>Comparision between performances of Channel estimation techniques for CP-LTE and ZP-LTE downlink systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Efficient pilot carrier pilot estimation using genetic algorithm in 4G MIMO-OFDM System </t>
+  </si>
+  <si>
+    <t>R S Ganesh, J Jayakumari</t>
+  </si>
+  <si>
+    <t>Abdul Hakim khlifi, Ridha Bouallegue</t>
+  </si>
+  <si>
+    <t>Internal Journal of computer networks and communications</t>
+  </si>
+  <si>
+    <t>LTE Bandwidth, Number of used subcarriers, Number of transmit antenna, Number of Receive antenna, Modulation scheme(QPSK), Channel Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.In terms of MSE,
+ channel estimation techniques in the two systems show same performances but only for low
+ SNR values. For high SNR values, channel estimators are better for CP-LTE Downlink systems
+ </t>
+  </si>
+  <si>
+    <t>The graph is drawn between SNR and BER</t>
+  </si>
+  <si>
+    <t>ZP-LTE has higher power efficiency when compared to CP-LTE</t>
+  </si>
+  <si>
+    <t>Simulations results show that although ZP-LTE systems outperform CP-LTE Downlink systems in terms of power efficiency, the CP-LTE systems show better performance than ZP-LTE systems and especially for high SNR values</t>
+  </si>
+  <si>
+    <t>ARPN journal of Engineering and Applies Sciences</t>
+  </si>
+  <si>
+    <t>FFT Size,No of Symbols,Modulation,No of Pilots,Channel</t>
+  </si>
+  <si>
+    <t>The graph is drawn between SNR(dB) and MSE(Mean Sqaured Error)</t>
+  </si>
+  <si>
+    <t>1. An Efficient GA based optimised channel estimation for 4g 2x2 MIMO-OFDM system is proposed.2.Implementation of LS,MMSE,DFT channel estimations and their optimizations using GA has been done with the help of Matlab3.The simulation results show that MSE of GAoptimized DFT-LS channel estimation is 1.0% lesser than DFT-LS estimation and the GA-optimized DFT-MMSE estimation has less 0.21% MSE than DFT-MMSE estimation.4.Minimize the noise levels at receiver side. and MSE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Fourier Transform (DFT)-based channel estimation is introduced to minimize the receiver noise interference which cannot be possible in the LS and MMSE techniques
+</t>
+  </si>
+  <si>
+    <t>1.The performance of channel estimation techniques for LTEdownlink receiver system based on the 10/20MHz bandwidth are simulated in this model2.n AWGN channel performances is better as compared to VA120 channel then higher order modulation energy
+ consumption is less as compare in lower order modulation.channel based algorithms are discussed. Also different optimization techniques, such as DecisionDirected Channel Estimation Implementation for Spectral Efficiency Improvement in Mobile MIMOOFDM, Adaptive Channel Estimation Techniques for MIMO-OFDM Systems are reviewed for training
+ based channel estimation algorithms.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,13 +293,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,49 +346,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I987"/>
+  <dimension ref="A1:J987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -484,7 +666,7 @@
     <col min="10" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,16 +695,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="232.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="232.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -545,7 +729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="246.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="246.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -568,7 +752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -591,7 +775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -614,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -623,7 +807,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -632,77 +816,156 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="383.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>

--- a/ResearchPapers.xlsx
+++ b/ResearchPapers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965181B2-CF14-4AFC-BE50-43329498ACA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A15A97-3CCD-43A8-AA4B-077F3FFE5AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>S.NO</t>
   </si>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,9 @@
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>

--- a/ResearchPapers.xlsx
+++ b/ResearchPapers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A15A97-3CCD-43A8-AA4B-077F3FFE5AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BFE03-115B-4CC9-9AF0-6128C415704C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>S.NO</t>
   </si>
@@ -236,12 +236,109 @@
  consumption is less as compare in lower order modulation.channel based algorithms are discussed. Also different optimization techniques, such as DecisionDirected Channel Estimation Implementation for Spectral Efficiency Improvement in Mobile MIMOOFDM, Adaptive Channel Estimation Techniques for MIMO-OFDM Systems are reviewed for training
  based channel estimation algorithms.</t>
   </si>
+  <si>
+    <t>Harika</t>
+  </si>
+  <si>
+    <t>Channel Estimation for MIMO-OFDM Systems by Modal Analysis Filtering</t>
+  </si>
+  <si>
+    <t>Marcello Cicerone,Osvaldo Simeone, Umberto Spagnolini</t>
+  </si>
+  <si>
+    <t>Transactions on communications</t>
+  </si>
+  <si>
+    <t>A lower bound for the channel-estimation error for MIMOOFDM systems has been derived, in order to assess to what extent LS channel estimation</t>
+  </si>
+  <si>
+    <t>Time variability,Bit-interleaved coded,slow varying channel.</t>
+  </si>
+  <si>
+    <t>In this, the graph is drawn between SNR(dB) which is Signal-to-Noise Ratio and MSE(Mean Square Error) which represents the increasing</t>
+  </si>
+  <si>
+    <t>Reducing the number of parameters,the corresponding modal matrices have reduced dimensions, as compared with the space–time modal, A very slow convergence.</t>
+  </si>
+  <si>
+    <t>A MIMO-OFDM Channel Estimation Approach Using Time of Arrivals</t>
+  </si>
+  <si>
+    <t>Research on the new channel estiamtion Algorithm for MIMO-OFDM system based on Training sequence</t>
+  </si>
+  <si>
+    <t>Performance of Channel estimation and Equalization in OFDM System</t>
+  </si>
+  <si>
+    <t>Improved Pilot-Aided Channel Estimation for MIMO-OFDM Fading channels</t>
+  </si>
+  <si>
+    <t>J.Mar, Chi-Cheng Kuo, M. B. Basnet</t>
+  </si>
+  <si>
+    <t>Dhere Vikas Bhimising, Dr.A.C Bhagali</t>
+  </si>
+  <si>
+    <t>Zhigang Yang</t>
+  </si>
+  <si>
+    <t>Z. Jane Wang, K.J.Ray Liu,Zhu Han</t>
+  </si>
+  <si>
+    <t>Transactions on wireless communications</t>
+  </si>
+  <si>
+    <t>Journal on Selected areas in communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE International Conference on Power Control Signal </t>
+  </si>
+  <si>
+    <t>Journal of Antennas and Propogation</t>
+  </si>
+  <si>
+    <t>The proposed TOA-based channel estimator incorporates the PDA and decision feedback methods to locate the path delays, with the number of paths determinedvia the MDL principle.</t>
+  </si>
+  <si>
+    <t>1.The performance of OFDM system is verified with channel estimation and channel equalization over fading channels.2.There is significant improvement in the performance of OFDM system using Weiner filter estimation.</t>
+  </si>
+  <si>
+    <t>1.MIMO technology and the combination of OFDM technology can complement each other so as to get a good antifading characteristics and highspectral efficiency.2.OFDM technology in the frequency domain channel will be divide 
+the utilization of the spectrum, but also to selective fading into flat fading in nature3.MIMO technology can not only exponentially increase the system capacity fading channel but also can greatly improve the transmission efficiency of wireless communicati systems, wireless channel bandwidth to resolve the issue of providing a new way.</t>
+  </si>
+  <si>
+    <t>It is demonstrated that the number of paths is scalable and adaptively changed with the characteristics of time-varying MIMO-OFDM fading channels to provide a suboptimum BER performance for QAM modulated  SFBC-OFDM systems operated either in frequency nonselective fast fading or in frequency selective fast fading chaneel.</t>
+  </si>
+  <si>
+    <t>TOA channel estimation,CDMA modulation,OFDM channel estimation,probabilistic data association(PDA).</t>
+  </si>
+  <si>
+    <t>Multipath fading,MIMO-OFDM channel estimation</t>
+  </si>
+  <si>
+    <t>Weiner Filter,Frequency domain approach, DFT: Discrete Fourier Transform</t>
+  </si>
+  <si>
+    <t>QAM modulation,MSE channel frequency,MIMO_OFDM</t>
+  </si>
+  <si>
+    <t>The graph is between SNR and MSE ehre freqyency of SNR and MSE increses proportionally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working within the regions that have good SNRs. </t>
+  </si>
+  <si>
+    <t>The graph is between SNR and SER plotting to show the Rayleigh channel isfound to give a better output corresponds to Rician channel.</t>
+  </si>
+  <si>
+    <t>BER of the OFDM transceiver over two-ray Rayleigh fading channel and six-path fading channel with 13 sec delay spread.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +416,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,6 +545,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,25 +778,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="63.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="26" width="7.59765625" customWidth="1"/>
+    <col min="10" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>33</v>
@@ -706,7 +836,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="232.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="232.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -729,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="246.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="246.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -752,7 +882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -775,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -798,7 +928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -807,7 +937,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
         <v>34</v>
@@ -818,7 +948,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>34</v>
@@ -829,7 +959,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -855,7 +985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="383.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="383.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -878,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="163.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -906,7 +1036,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -936,94 +1066,172 @@
       </c>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+    <row r="15" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1032,7 +1240,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1041,7 +1249,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1050,7 +1258,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1059,7 +1267,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1068,7 +1276,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1077,7 +1285,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1086,7 +1294,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1095,7 +1303,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1104,7 +1312,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1113,7 +1321,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1122,7 +1330,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1131,7 +1339,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1140,7 +1348,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1149,7 +1357,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1158,7 +1366,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1167,7 +1375,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1176,7 +1384,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1185,7 +1393,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1194,7 +1402,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1203,7 +1411,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1212,7 +1420,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1221,7 +1429,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1230,7 +1438,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1239,7 +1447,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1248,7 +1456,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1257,7 +1465,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1266,7 +1474,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1275,7 +1483,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1284,7 +1492,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1293,7 +1501,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1302,7 +1510,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1311,7 +1519,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1320,7 +1528,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1329,7 +1537,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1338,7 +1546,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1347,7 +1555,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1356,7 +1564,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1365,7 +1573,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1374,7 +1582,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1383,7 +1591,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1392,7 +1600,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1401,7 +1609,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1410,7 +1618,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1419,7 +1627,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1428,7 +1636,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1437,7 +1645,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1446,7 +1654,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1455,7 +1663,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1464,7 +1672,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1473,7 +1681,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1482,7 +1690,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1491,7 +1699,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1500,7 +1708,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1509,7 +1717,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1518,7 +1726,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1527,7 +1735,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1536,7 +1744,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1545,7 +1753,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1554,7 +1762,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1563,7 +1771,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1572,7 +1780,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1581,7 +1789,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1590,7 +1798,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1599,7 +1807,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1608,7 +1816,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1617,7 +1825,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1626,7 +1834,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1635,7 +1843,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1644,7 +1852,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1653,7 +1861,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1662,7 +1870,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1671,7 +1879,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1680,7 +1888,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1689,7 +1897,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1698,7 +1906,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1707,7 +1915,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1716,7 +1924,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1725,7 +1933,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1734,7 +1942,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1743,7 +1951,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1752,7 +1960,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1761,7 +1969,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1770,7 +1978,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1779,7 +1987,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1788,7 +1996,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1797,7 +2005,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1806,7 +2014,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1815,7 +2023,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1824,7 +2032,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1833,7 +2041,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1842,7 +2050,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1851,7 +2059,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1860,7 +2068,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1869,7 +2077,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1878,7 +2086,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1887,7 +2095,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1896,7 +2104,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1905,7 +2113,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1914,7 +2122,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1923,7 +2131,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1932,7 +2140,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1941,7 +2149,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1950,7 +2158,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1959,7 +2167,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1968,7 +2176,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1977,7 +2185,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1986,7 +2194,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1995,7 +2203,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2004,7 +2212,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2013,7 +2221,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2022,7 +2230,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2031,7 +2239,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -2040,7 +2248,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2049,7 +2257,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2058,7 +2266,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2067,7 +2275,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2076,7 +2284,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2085,7 +2293,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2094,7 +2302,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2103,7 +2311,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -2112,7 +2320,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2121,7 +2329,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2130,7 +2338,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2139,7 +2347,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2148,7 +2356,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -2157,7 +2365,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2166,7 +2374,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -2175,7 +2383,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2184,7 +2392,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -2193,7 +2401,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -2202,7 +2410,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -2211,7 +2419,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -2220,7 +2428,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -2229,7 +2437,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -2238,7 +2446,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -2247,7 +2455,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -2256,7 +2464,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -2265,7 +2473,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -2274,7 +2482,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -2283,7 +2491,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -2292,7 +2500,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -2301,7 +2509,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -2310,7 +2518,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -2319,7 +2527,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2328,7 +2536,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2337,7 +2545,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2346,7 +2554,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2355,7 +2563,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2364,7 +2572,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2373,7 +2581,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2382,7 +2590,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2391,7 +2599,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2400,7 +2608,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2409,7 +2617,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -2418,7 +2626,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -2427,7 +2635,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2436,7 +2644,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2445,7 +2653,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2454,7 +2662,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2463,7 +2671,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2472,7 +2680,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2481,7 +2689,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2490,7 +2698,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2499,7 +2707,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2508,7 +2716,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2517,7 +2725,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2526,7 +2734,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2535,7 +2743,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2544,7 +2752,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2553,7 +2761,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2562,7 +2770,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2571,7 +2779,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2580,7 +2788,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2589,7 +2797,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2598,7 +2806,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2607,7 +2815,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2616,7 +2824,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2625,7 +2833,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2634,7 +2842,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2643,7 +2851,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2652,7 +2860,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2661,7 +2869,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2670,7 +2878,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2679,7 +2887,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2688,7 +2896,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2697,7 +2905,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2706,7 +2914,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2715,7 +2923,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2724,7 +2932,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2733,7 +2941,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2742,7 +2950,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2751,7 +2959,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2760,7 +2968,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2769,7 +2977,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2778,7 +2986,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2787,7 +2995,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2796,7 +3004,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2805,7 +3013,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2814,7 +3022,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2823,7 +3031,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2832,7 +3040,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2841,7 +3049,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2850,7 +3058,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2859,7 +3067,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2868,7 +3076,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2877,7 +3085,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2886,7 +3094,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2895,7 +3103,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2904,7 +3112,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -2913,7 +3121,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -2922,7 +3130,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -2931,7 +3139,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -2940,7 +3148,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -2949,7 +3157,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -2958,7 +3166,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -2967,7 +3175,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -2976,7 +3184,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -2985,7 +3193,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -2994,7 +3202,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -3003,7 +3211,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -3012,7 +3220,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -3021,7 +3229,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -3030,7 +3238,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -3039,7 +3247,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -3048,7 +3256,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -3057,7 +3265,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -3066,7 +3274,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -3075,7 +3283,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -3084,7 +3292,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -3093,7 +3301,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -3102,7 +3310,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -3111,7 +3319,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -3120,7 +3328,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -3129,7 +3337,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -3138,7 +3346,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -3147,7 +3355,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -3156,7 +3364,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -3165,7 +3373,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -3174,7 +3382,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -3183,7 +3391,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -3192,7 +3400,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -3201,7 +3409,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -3210,7 +3418,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -3219,7 +3427,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -3228,7 +3436,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -3237,7 +3445,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -3246,7 +3454,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -3255,7 +3463,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -3264,7 +3472,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -3273,7 +3481,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -3282,7 +3490,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -3291,7 +3499,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -3300,7 +3508,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -3309,7 +3517,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -3318,7 +3526,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -3327,7 +3535,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -3336,7 +3544,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -3345,7 +3553,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -3354,7 +3562,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -3363,7 +3571,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -3372,7 +3580,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -3381,7 +3589,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -3390,7 +3598,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -3399,7 +3607,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -3408,7 +3616,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -3417,7 +3625,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -3426,7 +3634,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -3435,7 +3643,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -3444,7 +3652,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -3453,7 +3661,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -3462,7 +3670,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -3471,7 +3679,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -3480,7 +3688,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -3489,7 +3697,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -3498,7 +3706,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -3507,7 +3715,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -3516,7 +3724,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -3525,7 +3733,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -3534,7 +3742,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -3543,7 +3751,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -3552,7 +3760,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -3561,7 +3769,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -3570,7 +3778,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -3579,7 +3787,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -3588,7 +3796,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -3597,7 +3805,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -3606,7 +3814,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -3615,7 +3823,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -3624,7 +3832,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -3633,7 +3841,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -3642,7 +3850,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -3651,7 +3859,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -3660,7 +3868,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -3669,7 +3877,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -3678,7 +3886,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -3687,7 +3895,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -3696,7 +3904,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -3705,7 +3913,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -3714,7 +3922,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -3723,7 +3931,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -3732,7 +3940,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -3741,7 +3949,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -3750,7 +3958,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -3759,7 +3967,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -3768,7 +3976,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -3777,7 +3985,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -3786,7 +3994,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -3795,7 +4003,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -3804,7 +4012,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -3813,7 +4021,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -3822,7 +4030,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -3831,7 +4039,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -3840,7 +4048,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -3849,7 +4057,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -3858,7 +4066,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -3867,7 +4075,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -3876,7 +4084,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -3885,7 +4093,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -3894,7 +4102,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -3903,7 +4111,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -3912,7 +4120,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -3921,7 +4129,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -3930,7 +4138,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -3939,7 +4147,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -3948,7 +4156,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -3957,7 +4165,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -3966,7 +4174,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -3975,7 +4183,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -3984,7 +4192,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -3993,7 +4201,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -4002,7 +4210,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -4011,7 +4219,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -4020,7 +4228,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -4029,7 +4237,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -4038,7 +4246,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -4047,7 +4255,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -4056,7 +4264,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -4065,7 +4273,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -4074,7 +4282,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -4083,7 +4291,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -4092,7 +4300,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -4101,7 +4309,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -4110,7 +4318,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -4119,7 +4327,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -4128,7 +4336,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -4137,7 +4345,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -4146,7 +4354,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -4155,7 +4363,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -4164,7 +4372,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -4173,7 +4381,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -4182,7 +4390,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -4191,7 +4399,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -4200,7 +4408,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -4209,7 +4417,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -4218,7 +4426,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -4227,7 +4435,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -4236,7 +4444,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -4245,7 +4453,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -4254,7 +4462,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="5"/>
     </row>
-    <row r="382" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -4263,7 +4471,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="5"/>
     </row>
-    <row r="383" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -4272,7 +4480,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="5"/>
     </row>
-    <row r="384" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -4281,7 +4489,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="5"/>
     </row>
-    <row r="385" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -4290,7 +4498,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="5"/>
     </row>
-    <row r="386" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -4299,7 +4507,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="5"/>
     </row>
-    <row r="387" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -4308,7 +4516,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="5"/>
     </row>
-    <row r="388" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -4317,7 +4525,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="5"/>
     </row>
-    <row r="389" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -4326,7 +4534,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="5"/>
     </row>
-    <row r="390" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -4335,7 +4543,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="5"/>
     </row>
-    <row r="391" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -4344,7 +4552,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="5"/>
     </row>
-    <row r="392" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -4353,7 +4561,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="5"/>
     </row>
-    <row r="393" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -4362,7 +4570,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="5"/>
     </row>
-    <row r="394" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -4371,7 +4579,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="5"/>
     </row>
-    <row r="395" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -4380,7 +4588,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="5"/>
     </row>
-    <row r="396" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -4389,7 +4597,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="5"/>
     </row>
-    <row r="397" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -4398,7 +4606,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="5"/>
     </row>
-    <row r="398" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -4407,7 +4615,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="5"/>
     </row>
-    <row r="399" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -4416,7 +4624,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -4425,7 +4633,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="5"/>
     </row>
-    <row r="401" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -4434,7 +4642,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="5"/>
     </row>
-    <row r="402" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -4443,7 +4651,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="5"/>
     </row>
-    <row r="403" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -4452,7 +4660,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -4461,7 +4669,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="5"/>
     </row>
-    <row r="405" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -4470,7 +4678,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="5"/>
     </row>
-    <row r="406" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -4479,7 +4687,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="5"/>
     </row>
-    <row r="407" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -4488,7 +4696,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="5"/>
     </row>
-    <row r="408" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -4497,7 +4705,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="5"/>
     </row>
-    <row r="409" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -4506,7 +4714,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="5"/>
     </row>
-    <row r="410" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -4515,7 +4723,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -4524,7 +4732,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="5"/>
     </row>
-    <row r="412" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -4533,7 +4741,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="5"/>
     </row>
-    <row r="413" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -4542,7 +4750,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="5"/>
     </row>
-    <row r="414" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -4551,7 +4759,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="5"/>
     </row>
-    <row r="415" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -4560,7 +4768,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -4569,7 +4777,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="5"/>
     </row>
-    <row r="417" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -4578,7 +4786,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="5"/>
     </row>
-    <row r="418" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -4587,7 +4795,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="5"/>
     </row>
-    <row r="419" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -4596,7 +4804,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="5"/>
     </row>
-    <row r="420" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -4605,7 +4813,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="5"/>
     </row>
-    <row r="421" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -4614,7 +4822,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="5"/>
     </row>
-    <row r="422" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -4623,7 +4831,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="5"/>
     </row>
-    <row r="423" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -4632,7 +4840,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="5"/>
     </row>
-    <row r="424" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -4641,7 +4849,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="5"/>
     </row>
-    <row r="425" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -4650,7 +4858,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="5"/>
     </row>
-    <row r="426" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -4659,7 +4867,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="5"/>
     </row>
-    <row r="427" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -4668,7 +4876,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="5"/>
     </row>
-    <row r="428" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -4677,7 +4885,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="5"/>
     </row>
-    <row r="429" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -4686,7 +4894,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="5"/>
     </row>
-    <row r="430" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -4695,7 +4903,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="5"/>
     </row>
-    <row r="431" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -4704,7 +4912,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="5"/>
     </row>
-    <row r="432" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -4713,7 +4921,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="5"/>
     </row>
-    <row r="433" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -4722,7 +4930,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="5"/>
     </row>
-    <row r="434" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -4731,7 +4939,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="5"/>
     </row>
-    <row r="435" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -4740,7 +4948,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="5"/>
     </row>
-    <row r="436" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -4749,7 +4957,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="5"/>
     </row>
-    <row r="437" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -4758,7 +4966,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="5"/>
     </row>
-    <row r="438" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -4767,7 +4975,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="5"/>
     </row>
-    <row r="439" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -4776,7 +4984,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="5"/>
     </row>
-    <row r="440" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -4785,7 +4993,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="5"/>
     </row>
-    <row r="441" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -4794,7 +5002,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="5"/>
     </row>
-    <row r="442" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -4803,7 +5011,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="5"/>
     </row>
-    <row r="443" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -4812,7 +5020,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="5"/>
     </row>
-    <row r="444" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -4821,7 +5029,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="5"/>
     </row>
-    <row r="445" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -4830,7 +5038,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="5"/>
     </row>
-    <row r="446" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -4839,7 +5047,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="5"/>
     </row>
-    <row r="447" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -4848,7 +5056,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="5"/>
     </row>
-    <row r="448" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -4857,7 +5065,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="5"/>
     </row>
-    <row r="449" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -4866,7 +5074,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -4875,7 +5083,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="5"/>
     </row>
-    <row r="451" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -4884,7 +5092,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="5"/>
     </row>
-    <row r="452" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -4893,7 +5101,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="5"/>
     </row>
-    <row r="453" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -4902,7 +5110,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="5"/>
     </row>
-    <row r="454" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -4911,7 +5119,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="5"/>
     </row>
-    <row r="455" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -4920,7 +5128,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="5"/>
     </row>
-    <row r="456" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -4929,7 +5137,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -4938,7 +5146,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="5"/>
     </row>
-    <row r="458" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -4947,7 +5155,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="5"/>
     </row>
-    <row r="459" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -4956,7 +5164,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="5"/>
     </row>
-    <row r="460" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -4965,7 +5173,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="5"/>
     </row>
-    <row r="461" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -4974,7 +5182,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="5"/>
     </row>
-    <row r="462" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -4983,7 +5191,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="5"/>
     </row>
-    <row r="463" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -4992,7 +5200,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="5"/>
     </row>
-    <row r="464" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -5001,7 +5209,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="5"/>
     </row>
-    <row r="465" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -5010,7 +5218,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="5"/>
     </row>
-    <row r="466" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -5019,7 +5227,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="5"/>
     </row>
-    <row r="467" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -5028,7 +5236,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="5"/>
     </row>
-    <row r="468" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -5037,7 +5245,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="5"/>
     </row>
-    <row r="469" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -5046,7 +5254,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="5"/>
     </row>
-    <row r="470" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -5055,7 +5263,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="5"/>
     </row>
-    <row r="471" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -5064,7 +5272,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="5"/>
     </row>
-    <row r="472" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -5073,7 +5281,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="5"/>
     </row>
-    <row r="473" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -5082,7 +5290,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="5"/>
     </row>
-    <row r="474" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -5091,7 +5299,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="5"/>
     </row>
-    <row r="475" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -5100,7 +5308,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="5"/>
     </row>
-    <row r="476" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -5109,7 +5317,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="5"/>
     </row>
-    <row r="477" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -5118,7 +5326,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -5127,7 +5335,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="5"/>
     </row>
-    <row r="479" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -5136,7 +5344,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="5"/>
     </row>
-    <row r="480" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -5145,7 +5353,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="5"/>
     </row>
-    <row r="481" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -5154,7 +5362,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="5"/>
     </row>
-    <row r="482" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -5163,7 +5371,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="5"/>
     </row>
-    <row r="483" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -5172,7 +5380,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="5"/>
     </row>
-    <row r="484" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -5181,7 +5389,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="5"/>
     </row>
-    <row r="485" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -5190,7 +5398,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="5"/>
     </row>
-    <row r="486" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -5199,7 +5407,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="5"/>
     </row>
-    <row r="487" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -5208,7 +5416,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="5"/>
     </row>
-    <row r="488" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -5217,7 +5425,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="5"/>
     </row>
-    <row r="489" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -5226,7 +5434,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="5"/>
     </row>
-    <row r="490" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -5235,7 +5443,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="5"/>
     </row>
-    <row r="491" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -5244,7 +5452,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="5"/>
     </row>
-    <row r="492" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -5253,7 +5461,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="5"/>
     </row>
-    <row r="493" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -5262,7 +5470,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="5"/>
     </row>
-    <row r="494" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -5271,7 +5479,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="5"/>
     </row>
-    <row r="495" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -5280,7 +5488,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -5289,7 +5497,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="5"/>
     </row>
-    <row r="497" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -5298,7 +5506,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="5"/>
     </row>
-    <row r="498" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -5307,7 +5515,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="5"/>
     </row>
-    <row r="499" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -5316,7 +5524,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="5"/>
     </row>
-    <row r="500" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -5325,7 +5533,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="5"/>
     </row>
-    <row r="501" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -5334,7 +5542,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -5343,7 +5551,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="5"/>
     </row>
-    <row r="503" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -5352,7 +5560,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="5"/>
     </row>
-    <row r="504" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -5361,7 +5569,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="5"/>
     </row>
-    <row r="505" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -5370,7 +5578,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="5"/>
     </row>
-    <row r="506" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -5379,7 +5587,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="5"/>
     </row>
-    <row r="507" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -5388,7 +5596,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="5"/>
     </row>
-    <row r="508" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -5397,7 +5605,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="5"/>
     </row>
-    <row r="509" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -5406,7 +5614,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="5"/>
     </row>
-    <row r="510" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -5415,7 +5623,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="5"/>
     </row>
-    <row r="511" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -5424,7 +5632,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="5"/>
     </row>
-    <row r="512" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -5433,7 +5641,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="5"/>
     </row>
-    <row r="513" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -5442,7 +5650,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="5"/>
     </row>
-    <row r="514" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -5451,7 +5659,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="5"/>
     </row>
-    <row r="515" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -5460,7 +5668,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="5"/>
     </row>
-    <row r="516" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -5469,7 +5677,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="5"/>
     </row>
-    <row r="517" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -5478,7 +5686,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="5"/>
     </row>
-    <row r="518" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -5487,7 +5695,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="5"/>
     </row>
-    <row r="519" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -5496,7 +5704,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="5"/>
     </row>
-    <row r="520" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -5505,7 +5713,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="5"/>
     </row>
-    <row r="521" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -5514,7 +5722,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="5"/>
     </row>
-    <row r="522" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -5523,7 +5731,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="5"/>
     </row>
-    <row r="523" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -5532,7 +5740,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="5"/>
     </row>
-    <row r="524" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -5541,7 +5749,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="5"/>
     </row>
-    <row r="525" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -5550,7 +5758,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="5"/>
     </row>
-    <row r="526" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -5559,7 +5767,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="5"/>
     </row>
-    <row r="527" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -5568,7 +5776,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="5"/>
     </row>
-    <row r="528" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -5577,7 +5785,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="5"/>
     </row>
-    <row r="529" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -5586,7 +5794,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="5"/>
     </row>
-    <row r="530" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -5595,7 +5803,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="5"/>
     </row>
-    <row r="531" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -5604,7 +5812,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="5"/>
     </row>
-    <row r="532" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -5613,7 +5821,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="5"/>
     </row>
-    <row r="533" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -5622,7 +5830,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="5"/>
     </row>
-    <row r="534" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -5631,7 +5839,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="5"/>
     </row>
-    <row r="535" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -5640,7 +5848,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="5"/>
     </row>
-    <row r="536" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -5649,7 +5857,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="5"/>
     </row>
-    <row r="537" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -5658,7 +5866,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="5"/>
     </row>
-    <row r="538" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -5667,7 +5875,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="5"/>
     </row>
-    <row r="539" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -5676,7 +5884,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="5"/>
     </row>
-    <row r="540" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -5685,7 +5893,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -5694,7 +5902,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="5"/>
     </row>
-    <row r="542" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -5703,7 +5911,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="5"/>
     </row>
-    <row r="543" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -5712,7 +5920,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="5"/>
     </row>
-    <row r="544" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -5721,7 +5929,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="5"/>
     </row>
-    <row r="545" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -5730,7 +5938,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="5"/>
     </row>
-    <row r="546" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -5739,7 +5947,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="5"/>
     </row>
-    <row r="547" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -5748,7 +5956,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -5757,7 +5965,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="5"/>
     </row>
-    <row r="549" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -5766,7 +5974,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="5"/>
     </row>
-    <row r="550" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -5775,7 +5983,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="5"/>
     </row>
-    <row r="551" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -5784,7 +5992,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="5"/>
     </row>
-    <row r="552" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -5793,7 +6001,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="5"/>
     </row>
-    <row r="553" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -5802,7 +6010,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="5"/>
     </row>
-    <row r="554" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -5811,7 +6019,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="5"/>
     </row>
-    <row r="555" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -5820,7 +6028,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="5"/>
     </row>
-    <row r="556" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -5829,7 +6037,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="5"/>
     </row>
-    <row r="557" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -5838,7 +6046,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="5"/>
     </row>
-    <row r="558" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -5847,7 +6055,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="5"/>
     </row>
-    <row r="559" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -5856,7 +6064,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="5"/>
     </row>
-    <row r="560" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -5865,7 +6073,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="5"/>
     </row>
-    <row r="561" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -5874,7 +6082,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="5"/>
     </row>
-    <row r="562" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -5883,7 +6091,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="5"/>
     </row>
-    <row r="563" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -5892,7 +6100,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="5"/>
     </row>
-    <row r="564" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -5901,7 +6109,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="5"/>
     </row>
-    <row r="565" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -5910,7 +6118,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="5"/>
     </row>
-    <row r="566" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -5919,7 +6127,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="5"/>
     </row>
-    <row r="567" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -5928,7 +6136,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="5"/>
     </row>
-    <row r="568" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -5937,7 +6145,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="5"/>
     </row>
-    <row r="569" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -5946,7 +6154,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="5"/>
     </row>
-    <row r="570" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -5955,7 +6163,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="5"/>
     </row>
-    <row r="571" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -5964,7 +6172,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="5"/>
     </row>
-    <row r="572" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -5973,7 +6181,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="5"/>
     </row>
-    <row r="573" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -5982,7 +6190,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="5"/>
     </row>
-    <row r="574" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -5991,7 +6199,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="5"/>
     </row>
-    <row r="575" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -6000,7 +6208,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="5"/>
     </row>
-    <row r="576" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -6009,7 +6217,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="5"/>
     </row>
-    <row r="577" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -6018,7 +6226,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="5"/>
     </row>
-    <row r="578" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -6027,7 +6235,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="5"/>
     </row>
-    <row r="579" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -6036,7 +6244,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="5"/>
     </row>
-    <row r="580" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -6045,7 +6253,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="5"/>
     </row>
-    <row r="581" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -6054,7 +6262,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="5"/>
     </row>
-    <row r="582" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -6063,7 +6271,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="5"/>
     </row>
-    <row r="583" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -6072,7 +6280,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="5"/>
     </row>
-    <row r="584" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -6081,7 +6289,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="5"/>
     </row>
-    <row r="585" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -6090,7 +6298,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="5"/>
     </row>
-    <row r="586" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -6099,7 +6307,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -6108,7 +6316,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="5"/>
     </row>
-    <row r="588" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -6117,7 +6325,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="5"/>
     </row>
-    <row r="589" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -6126,7 +6334,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="5"/>
     </row>
-    <row r="590" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -6135,7 +6343,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="5"/>
     </row>
-    <row r="591" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -6144,7 +6352,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="5"/>
     </row>
-    <row r="592" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -6153,7 +6361,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="5"/>
     </row>
-    <row r="593" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -6162,7 +6370,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="5"/>
     </row>
-    <row r="594" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -6171,7 +6379,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="5"/>
     </row>
-    <row r="595" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -6180,7 +6388,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="5"/>
     </row>
-    <row r="596" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -6189,7 +6397,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="5"/>
     </row>
-    <row r="597" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -6198,7 +6406,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="5"/>
     </row>
-    <row r="598" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -6207,7 +6415,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="5"/>
     </row>
-    <row r="599" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -6216,7 +6424,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="5"/>
     </row>
-    <row r="600" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -6225,7 +6433,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="5"/>
     </row>
-    <row r="601" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -6234,7 +6442,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="5"/>
     </row>
-    <row r="602" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -6243,7 +6451,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="5"/>
     </row>
-    <row r="603" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -6252,7 +6460,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="5"/>
     </row>
-    <row r="604" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -6261,7 +6469,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="5"/>
     </row>
-    <row r="605" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -6270,7 +6478,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="5"/>
     </row>
-    <row r="606" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -6279,7 +6487,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="5"/>
     </row>
-    <row r="607" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -6288,7 +6496,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="5"/>
     </row>
-    <row r="608" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -6297,7 +6505,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="5"/>
     </row>
-    <row r="609" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -6306,7 +6514,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="5"/>
     </row>
-    <row r="610" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -6315,7 +6523,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="5"/>
     </row>
-    <row r="611" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -6324,7 +6532,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="5"/>
     </row>
-    <row r="612" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -6333,7 +6541,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="5"/>
     </row>
-    <row r="613" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -6342,7 +6550,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="5"/>
     </row>
-    <row r="614" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -6351,7 +6559,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="5"/>
     </row>
-    <row r="615" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -6360,7 +6568,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="5"/>
     </row>
-    <row r="616" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -6369,7 +6577,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="5"/>
     </row>
-    <row r="617" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -6378,7 +6586,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="5"/>
     </row>
-    <row r="618" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -6387,7 +6595,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="5"/>
     </row>
-    <row r="619" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -6396,7 +6604,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="5"/>
     </row>
-    <row r="620" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -6405,7 +6613,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="5"/>
     </row>
-    <row r="621" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -6414,7 +6622,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="5"/>
     </row>
-    <row r="622" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -6423,7 +6631,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="5"/>
     </row>
-    <row r="623" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -6432,7 +6640,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="5"/>
     </row>
-    <row r="624" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -6441,7 +6649,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="5"/>
     </row>
-    <row r="625" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -6450,7 +6658,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="5"/>
     </row>
-    <row r="626" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -6459,7 +6667,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="5"/>
     </row>
-    <row r="627" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -6468,7 +6676,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="5"/>
     </row>
-    <row r="628" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -6477,7 +6685,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="5"/>
     </row>
-    <row r="629" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -6486,7 +6694,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="5"/>
     </row>
-    <row r="630" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -6495,7 +6703,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="5"/>
     </row>
-    <row r="631" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -6504,7 +6712,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="5"/>
     </row>
-    <row r="632" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -6513,7 +6721,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="5"/>
     </row>
-    <row r="633" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -6522,7 +6730,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="5"/>
     </row>
-    <row r="634" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -6531,7 +6739,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="5"/>
     </row>
-    <row r="635" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -6540,7 +6748,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="5"/>
     </row>
-    <row r="636" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -6549,7 +6757,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="5"/>
     </row>
-    <row r="637" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -6558,7 +6766,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="5"/>
     </row>
-    <row r="638" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -6567,7 +6775,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="5"/>
     </row>
-    <row r="639" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -6576,7 +6784,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="5"/>
     </row>
-    <row r="640" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -6585,7 +6793,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="5"/>
     </row>
-    <row r="641" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -6594,7 +6802,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="5"/>
     </row>
-    <row r="642" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -6603,7 +6811,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="5"/>
     </row>
-    <row r="643" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -6612,7 +6820,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="5"/>
     </row>
-    <row r="644" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -6621,7 +6829,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="5"/>
     </row>
-    <row r="645" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -6630,7 +6838,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="5"/>
     </row>
-    <row r="646" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -6639,7 +6847,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="5"/>
     </row>
-    <row r="647" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -6648,7 +6856,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="5"/>
     </row>
-    <row r="648" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -6657,7 +6865,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="5"/>
     </row>
-    <row r="649" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -6666,7 +6874,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="5"/>
     </row>
-    <row r="650" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -6675,7 +6883,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="5"/>
     </row>
-    <row r="651" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -6684,7 +6892,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="5"/>
     </row>
-    <row r="652" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -6693,7 +6901,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="5"/>
     </row>
-    <row r="653" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -6702,7 +6910,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="5"/>
     </row>
-    <row r="654" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -6711,7 +6919,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="5"/>
     </row>
-    <row r="655" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -6720,7 +6928,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="5"/>
     </row>
-    <row r="656" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -6729,7 +6937,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="5"/>
     </row>
-    <row r="657" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -6738,7 +6946,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="5"/>
     </row>
-    <row r="658" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -6747,7 +6955,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="5"/>
     </row>
-    <row r="659" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -6756,7 +6964,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="5"/>
     </row>
-    <row r="660" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -6765,7 +6973,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="5"/>
     </row>
-    <row r="661" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -6774,7 +6982,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="5"/>
     </row>
-    <row r="662" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -6783,7 +6991,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="5"/>
     </row>
-    <row r="663" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -6792,7 +7000,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="5"/>
     </row>
-    <row r="664" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -6801,7 +7009,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="5"/>
     </row>
-    <row r="665" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -6810,7 +7018,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="5"/>
     </row>
-    <row r="666" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -6819,7 +7027,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="5"/>
     </row>
-    <row r="667" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -6828,7 +7036,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="5"/>
     </row>
-    <row r="668" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -6837,7 +7045,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="5"/>
     </row>
-    <row r="669" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -6846,7 +7054,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="5"/>
     </row>
-    <row r="670" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -6855,7 +7063,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="5"/>
     </row>
-    <row r="671" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -6864,7 +7072,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="5"/>
     </row>
-    <row r="672" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -6873,7 +7081,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="5"/>
     </row>
-    <row r="673" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -6882,7 +7090,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="5"/>
     </row>
-    <row r="674" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -6891,7 +7099,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="5"/>
     </row>
-    <row r="675" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -6900,7 +7108,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="5"/>
     </row>
-    <row r="676" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -6909,7 +7117,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="5"/>
     </row>
-    <row r="677" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -6918,7 +7126,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="5"/>
     </row>
-    <row r="678" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -6927,7 +7135,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="5"/>
     </row>
-    <row r="679" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -6936,7 +7144,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="5"/>
     </row>
-    <row r="680" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -6945,7 +7153,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="5"/>
     </row>
-    <row r="681" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -6954,7 +7162,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="5"/>
     </row>
-    <row r="682" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -6963,7 +7171,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="5"/>
     </row>
-    <row r="683" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -6972,7 +7180,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="5"/>
     </row>
-    <row r="684" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -6981,7 +7189,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="5"/>
     </row>
-    <row r="685" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -6990,7 +7198,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="5"/>
     </row>
-    <row r="686" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -6999,7 +7207,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="5"/>
     </row>
-    <row r="687" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -7008,7 +7216,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="5"/>
     </row>
-    <row r="688" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -7017,7 +7225,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="5"/>
     </row>
-    <row r="689" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -7026,7 +7234,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="5"/>
     </row>
-    <row r="690" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -7035,7 +7243,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="5"/>
     </row>
-    <row r="691" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -7044,7 +7252,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="5"/>
     </row>
-    <row r="692" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -7053,7 +7261,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="5"/>
     </row>
-    <row r="693" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -7062,7 +7270,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="5"/>
     </row>
-    <row r="694" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -7071,7 +7279,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="5"/>
     </row>
-    <row r="695" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -7080,7 +7288,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="5"/>
     </row>
-    <row r="696" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -7089,7 +7297,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="5"/>
     </row>
-    <row r="697" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -7098,7 +7306,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="5"/>
     </row>
-    <row r="698" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -7107,7 +7315,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="5"/>
     </row>
-    <row r="699" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -7116,7 +7324,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="5"/>
     </row>
-    <row r="700" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -7125,7 +7333,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="5"/>
     </row>
-    <row r="701" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -7134,7 +7342,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="5"/>
     </row>
-    <row r="702" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -7143,7 +7351,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="5"/>
     </row>
-    <row r="703" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -7152,7 +7360,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="5"/>
     </row>
-    <row r="704" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -7161,7 +7369,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="5"/>
     </row>
-    <row r="705" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -7170,7 +7378,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="5"/>
     </row>
-    <row r="706" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -7179,7 +7387,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="5"/>
     </row>
-    <row r="707" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -7188,7 +7396,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="5"/>
     </row>
-    <row r="708" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -7197,7 +7405,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="5"/>
     </row>
-    <row r="709" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -7206,7 +7414,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="5"/>
     </row>
-    <row r="710" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -7215,7 +7423,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="5"/>
     </row>
-    <row r="711" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -7224,7 +7432,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="5"/>
     </row>
-    <row r="712" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -7233,7 +7441,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="5"/>
     </row>
-    <row r="713" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -7242,7 +7450,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="5"/>
     </row>
-    <row r="714" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -7251,7 +7459,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="5"/>
     </row>
-    <row r="715" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -7260,7 +7468,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="5"/>
     </row>
-    <row r="716" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -7269,7 +7477,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="5"/>
     </row>
-    <row r="717" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -7278,7 +7486,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="5"/>
     </row>
-    <row r="718" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -7287,7 +7495,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="5"/>
     </row>
-    <row r="719" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -7296,7 +7504,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="5"/>
     </row>
-    <row r="720" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -7305,7 +7513,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="5"/>
     </row>
-    <row r="721" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -7314,7 +7522,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="5"/>
     </row>
-    <row r="722" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -7323,7 +7531,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="5"/>
     </row>
-    <row r="723" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -7332,7 +7540,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="5"/>
     </row>
-    <row r="724" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -7341,7 +7549,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="5"/>
     </row>
-    <row r="725" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -7350,7 +7558,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="5"/>
     </row>
-    <row r="726" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -7359,7 +7567,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="5"/>
     </row>
-    <row r="727" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -7368,7 +7576,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="5"/>
     </row>
-    <row r="728" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -7377,7 +7585,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="5"/>
     </row>
-    <row r="729" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -7386,7 +7594,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="5"/>
     </row>
-    <row r="730" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -7395,7 +7603,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="5"/>
     </row>
-    <row r="731" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -7404,7 +7612,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="5"/>
     </row>
-    <row r="732" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -7413,7 +7621,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="5"/>
     </row>
-    <row r="733" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -7422,7 +7630,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="5"/>
     </row>
-    <row r="734" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -7431,7 +7639,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="5"/>
     </row>
-    <row r="735" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -7440,7 +7648,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="5"/>
     </row>
-    <row r="736" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -7449,7 +7657,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="5"/>
     </row>
-    <row r="737" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -7458,7 +7666,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="5"/>
     </row>
-    <row r="738" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -7467,7 +7675,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="5"/>
     </row>
-    <row r="739" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -7476,7 +7684,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="5"/>
     </row>
-    <row r="740" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -7485,7 +7693,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="5"/>
     </row>
-    <row r="741" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -7494,7 +7702,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="5"/>
     </row>
-    <row r="742" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -7503,7 +7711,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="5"/>
     </row>
-    <row r="743" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -7512,7 +7720,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="5"/>
     </row>
-    <row r="744" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -7521,7 +7729,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="5"/>
     </row>
-    <row r="745" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -7530,7 +7738,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="5"/>
     </row>
-    <row r="746" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -7539,7 +7747,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="5"/>
     </row>
-    <row r="747" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -7548,7 +7756,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="5"/>
     </row>
-    <row r="748" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -7557,7 +7765,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="5"/>
     </row>
-    <row r="749" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -7566,7 +7774,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="5"/>
     </row>
-    <row r="750" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -7575,7 +7783,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="5"/>
     </row>
-    <row r="751" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -7584,7 +7792,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="5"/>
     </row>
-    <row r="752" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -7593,7 +7801,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="5"/>
     </row>
-    <row r="753" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -7602,7 +7810,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="5"/>
     </row>
-    <row r="754" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -7611,7 +7819,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="5"/>
     </row>
-    <row r="755" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -7620,7 +7828,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="5"/>
     </row>
-    <row r="756" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -7629,7 +7837,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="5"/>
     </row>
-    <row r="757" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -7638,7 +7846,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="5"/>
     </row>
-    <row r="758" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -7647,7 +7855,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="5"/>
     </row>
-    <row r="759" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -7656,7 +7864,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="5"/>
     </row>
-    <row r="760" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -7665,7 +7873,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="5"/>
     </row>
-    <row r="761" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -7674,7 +7882,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="5"/>
     </row>
-    <row r="762" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -7683,7 +7891,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="5"/>
     </row>
-    <row r="763" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -7692,7 +7900,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="5"/>
     </row>
-    <row r="764" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -7701,7 +7909,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="5"/>
     </row>
-    <row r="765" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -7710,7 +7918,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="5"/>
     </row>
-    <row r="766" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -7719,7 +7927,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="5"/>
     </row>
-    <row r="767" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -7728,7 +7936,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="5"/>
     </row>
-    <row r="768" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -7737,7 +7945,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="5"/>
     </row>
-    <row r="769" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -7746,7 +7954,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="5"/>
     </row>
-    <row r="770" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -7755,7 +7963,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="5"/>
     </row>
-    <row r="771" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -7764,7 +7972,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="5"/>
     </row>
-    <row r="772" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -7773,7 +7981,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="5"/>
     </row>
-    <row r="773" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -7782,7 +7990,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="5"/>
     </row>
-    <row r="774" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -7791,7 +7999,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="5"/>
     </row>
-    <row r="775" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -7800,7 +8008,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="5"/>
     </row>
-    <row r="776" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -7809,7 +8017,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="5"/>
     </row>
-    <row r="777" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -7818,7 +8026,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="5"/>
     </row>
-    <row r="778" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -7827,7 +8035,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="5"/>
     </row>
-    <row r="779" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -7836,7 +8044,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="5"/>
     </row>
-    <row r="780" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -7845,7 +8053,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="5"/>
     </row>
-    <row r="781" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -7854,7 +8062,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="5"/>
     </row>
-    <row r="782" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -7863,7 +8071,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="5"/>
     </row>
-    <row r="783" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -7872,7 +8080,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="5"/>
     </row>
-    <row r="784" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -7881,7 +8089,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="5"/>
     </row>
-    <row r="785" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -7890,7 +8098,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="5"/>
     </row>
-    <row r="786" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -7899,7 +8107,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="5"/>
     </row>
-    <row r="787" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -7908,7 +8116,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="5"/>
     </row>
-    <row r="788" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -7917,7 +8125,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="5"/>
     </row>
-    <row r="789" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -7926,7 +8134,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="5"/>
     </row>
-    <row r="790" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -7935,7 +8143,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="5"/>
     </row>
-    <row r="791" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -7944,7 +8152,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="5"/>
     </row>
-    <row r="792" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -7953,7 +8161,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="5"/>
     </row>
-    <row r="793" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -7962,7 +8170,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="5"/>
     </row>
-    <row r="794" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -7971,7 +8179,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="5"/>
     </row>
-    <row r="795" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -7980,7 +8188,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="5"/>
     </row>
-    <row r="796" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -7989,7 +8197,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="5"/>
     </row>
-    <row r="797" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -7998,7 +8206,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="5"/>
     </row>
-    <row r="798" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -8007,7 +8215,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="5"/>
     </row>
-    <row r="799" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -8016,7 +8224,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="5"/>
     </row>
-    <row r="800" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -8025,7 +8233,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="5"/>
     </row>
-    <row r="801" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -8034,7 +8242,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="5"/>
     </row>
-    <row r="802" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -8043,7 +8251,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="5"/>
     </row>
-    <row r="803" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -8052,7 +8260,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="5"/>
     </row>
-    <row r="804" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -8061,7 +8269,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="5"/>
     </row>
-    <row r="805" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -8070,7 +8278,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="5"/>
     </row>
-    <row r="806" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -8079,7 +8287,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="5"/>
     </row>
-    <row r="807" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -8088,7 +8296,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="5"/>
     </row>
-    <row r="808" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -8097,7 +8305,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="5"/>
     </row>
-    <row r="809" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -8106,7 +8314,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="5"/>
     </row>
-    <row r="810" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -8115,7 +8323,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="5"/>
     </row>
-    <row r="811" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -8124,7 +8332,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="5"/>
     </row>
-    <row r="812" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -8133,7 +8341,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="5"/>
     </row>
-    <row r="813" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -8142,7 +8350,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="5"/>
     </row>
-    <row r="814" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -8151,7 +8359,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="5"/>
     </row>
-    <row r="815" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -8160,7 +8368,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="5"/>
     </row>
-    <row r="816" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -8169,7 +8377,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="5"/>
     </row>
-    <row r="817" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -8178,7 +8386,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="5"/>
     </row>
-    <row r="818" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -8187,7 +8395,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="5"/>
     </row>
-    <row r="819" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -8196,7 +8404,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="5"/>
     </row>
-    <row r="820" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -8205,7 +8413,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="5"/>
     </row>
-    <row r="821" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -8214,7 +8422,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="5"/>
     </row>
-    <row r="822" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -8223,7 +8431,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="5"/>
     </row>
-    <row r="823" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -8232,7 +8440,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="5"/>
     </row>
-    <row r="824" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -8241,7 +8449,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="5"/>
     </row>
-    <row r="825" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -8250,7 +8458,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="5"/>
     </row>
-    <row r="826" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -8259,7 +8467,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="5"/>
     </row>
-    <row r="827" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -8268,7 +8476,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="5"/>
     </row>
-    <row r="828" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -8277,7 +8485,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="5"/>
     </row>
-    <row r="829" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -8286,7 +8494,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="5"/>
     </row>
-    <row r="830" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -8295,7 +8503,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="5"/>
     </row>
-    <row r="831" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -8304,7 +8512,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="5"/>
     </row>
-    <row r="832" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -8313,7 +8521,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="5"/>
     </row>
-    <row r="833" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -8322,7 +8530,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="5"/>
     </row>
-    <row r="834" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -8331,7 +8539,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="5"/>
     </row>
-    <row r="835" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -8340,7 +8548,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="5"/>
     </row>
-    <row r="836" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -8349,7 +8557,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="5"/>
     </row>
-    <row r="837" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -8358,7 +8566,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="5"/>
     </row>
-    <row r="838" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -8367,7 +8575,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="5"/>
     </row>
-    <row r="839" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -8376,7 +8584,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="5"/>
     </row>
-    <row r="840" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -8385,7 +8593,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="5"/>
     </row>
-    <row r="841" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -8394,7 +8602,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="5"/>
     </row>
-    <row r="842" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -8403,7 +8611,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="5"/>
     </row>
-    <row r="843" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -8412,7 +8620,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="5"/>
     </row>
-    <row r="844" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -8421,7 +8629,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="5"/>
     </row>
-    <row r="845" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -8430,7 +8638,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="5"/>
     </row>
-    <row r="846" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -8439,7 +8647,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="5"/>
     </row>
-    <row r="847" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -8448,7 +8656,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="5"/>
     </row>
-    <row r="848" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -8457,7 +8665,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="5"/>
     </row>
-    <row r="849" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -8466,7 +8674,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="5"/>
     </row>
-    <row r="850" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -8475,7 +8683,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="5"/>
     </row>
-    <row r="851" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -8484,7 +8692,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="5"/>
     </row>
-    <row r="852" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -8493,7 +8701,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="5"/>
     </row>
-    <row r="853" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -8502,7 +8710,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="5"/>
     </row>
-    <row r="854" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -8511,7 +8719,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="5"/>
     </row>
-    <row r="855" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -8520,7 +8728,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="5"/>
     </row>
-    <row r="856" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -8529,7 +8737,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="5"/>
     </row>
-    <row r="857" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -8538,7 +8746,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="5"/>
     </row>
-    <row r="858" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -8547,7 +8755,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="5"/>
     </row>
-    <row r="859" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -8556,7 +8764,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="5"/>
     </row>
-    <row r="860" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -8565,7 +8773,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="5"/>
     </row>
-    <row r="861" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -8574,7 +8782,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="5"/>
     </row>
-    <row r="862" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -8583,7 +8791,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="5"/>
     </row>
-    <row r="863" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -8592,7 +8800,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="5"/>
     </row>
-    <row r="864" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -8601,7 +8809,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="5"/>
     </row>
-    <row r="865" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -8610,7 +8818,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="5"/>
     </row>
-    <row r="866" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -8619,7 +8827,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="5"/>
     </row>
-    <row r="867" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -8628,7 +8836,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="5"/>
     </row>
-    <row r="868" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -8637,7 +8845,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="5"/>
     </row>
-    <row r="869" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -8646,7 +8854,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="5"/>
     </row>
-    <row r="870" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -8655,7 +8863,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="5"/>
     </row>
-    <row r="871" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -8664,7 +8872,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="5"/>
     </row>
-    <row r="872" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -8673,7 +8881,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="5"/>
     </row>
-    <row r="873" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -8682,7 +8890,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="5"/>
     </row>
-    <row r="874" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -8691,7 +8899,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="5"/>
     </row>
-    <row r="875" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -8700,7 +8908,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="5"/>
     </row>
-    <row r="876" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -8709,7 +8917,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="5"/>
     </row>
-    <row r="877" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -8718,7 +8926,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="5"/>
     </row>
-    <row r="878" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -8727,7 +8935,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="5"/>
     </row>
-    <row r="879" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -8736,7 +8944,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="5"/>
     </row>
-    <row r="880" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -8745,7 +8953,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="5"/>
     </row>
-    <row r="881" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -8754,7 +8962,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="5"/>
     </row>
-    <row r="882" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -8763,7 +8971,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="5"/>
     </row>
-    <row r="883" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -8772,7 +8980,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="5"/>
     </row>
-    <row r="884" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -8781,7 +8989,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="5"/>
     </row>
-    <row r="885" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -8790,7 +8998,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="5"/>
     </row>
-    <row r="886" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -8799,7 +9007,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="5"/>
     </row>
-    <row r="887" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -8808,7 +9016,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="5"/>
     </row>
-    <row r="888" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -8817,7 +9025,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="5"/>
     </row>
-    <row r="889" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -8826,7 +9034,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="5"/>
     </row>
-    <row r="890" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -8835,7 +9043,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="5"/>
     </row>
-    <row r="891" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -8844,7 +9052,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="5"/>
     </row>
-    <row r="892" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -8853,7 +9061,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="5"/>
     </row>
-    <row r="893" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -8862,7 +9070,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="5"/>
     </row>
-    <row r="894" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -8871,7 +9079,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="5"/>
     </row>
-    <row r="895" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -8880,7 +9088,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="5"/>
     </row>
-    <row r="896" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -8889,7 +9097,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="5"/>
     </row>
-    <row r="897" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -8898,7 +9106,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="5"/>
     </row>
-    <row r="898" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -8907,7 +9115,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="5"/>
     </row>
-    <row r="899" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -8916,7 +9124,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="5"/>
     </row>
-    <row r="900" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -8925,7 +9133,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="5"/>
     </row>
-    <row r="901" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -8934,7 +9142,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="5"/>
     </row>
-    <row r="902" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -8943,7 +9151,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="5"/>
     </row>
-    <row r="903" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -8952,7 +9160,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="5"/>
     </row>
-    <row r="904" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -8961,7 +9169,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="5"/>
     </row>
-    <row r="905" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -8970,7 +9178,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="5"/>
     </row>
-    <row r="906" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -8979,7 +9187,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="5"/>
     </row>
-    <row r="907" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -8988,7 +9196,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="5"/>
     </row>
-    <row r="908" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -8997,7 +9205,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="5"/>
     </row>
-    <row r="909" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -9006,7 +9214,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="5"/>
     </row>
-    <row r="910" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -9015,7 +9223,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="5"/>
     </row>
-    <row r="911" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -9024,7 +9232,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="5"/>
     </row>
-    <row r="912" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -9033,7 +9241,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="5"/>
     </row>
-    <row r="913" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -9042,7 +9250,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="5"/>
     </row>
-    <row r="914" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -9051,7 +9259,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="5"/>
     </row>
-    <row r="915" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -9060,7 +9268,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="5"/>
     </row>
-    <row r="916" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -9069,7 +9277,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="5"/>
     </row>
-    <row r="917" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -9078,7 +9286,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="5"/>
     </row>
-    <row r="918" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -9087,7 +9295,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="5"/>
     </row>
-    <row r="919" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -9096,7 +9304,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="5"/>
     </row>
-    <row r="920" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -9105,7 +9313,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="5"/>
     </row>
-    <row r="921" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -9114,7 +9322,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="5"/>
     </row>
-    <row r="922" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -9123,7 +9331,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="5"/>
     </row>
-    <row r="923" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -9132,7 +9340,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="5"/>
     </row>
-    <row r="924" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -9141,7 +9349,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="5"/>
     </row>
-    <row r="925" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -9150,7 +9358,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="5"/>
     </row>
-    <row r="926" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -9159,7 +9367,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="5"/>
     </row>
-    <row r="927" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -9168,7 +9376,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="5"/>
     </row>
-    <row r="928" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -9177,7 +9385,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="5"/>
     </row>
-    <row r="929" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -9186,7 +9394,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="5"/>
     </row>
-    <row r="930" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -9195,7 +9403,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="5"/>
     </row>
-    <row r="931" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -9204,7 +9412,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="5"/>
     </row>
-    <row r="932" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -9213,7 +9421,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="5"/>
     </row>
-    <row r="933" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -9222,7 +9430,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="5"/>
     </row>
-    <row r="934" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -9231,7 +9439,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="5"/>
     </row>
-    <row r="935" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -9240,7 +9448,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="5"/>
     </row>
-    <row r="936" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -9249,7 +9457,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="5"/>
     </row>
-    <row r="937" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -9258,7 +9466,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="5"/>
     </row>
-    <row r="938" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -9267,7 +9475,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="5"/>
     </row>
-    <row r="939" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -9276,7 +9484,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="5"/>
     </row>
-    <row r="940" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -9285,7 +9493,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="5"/>
     </row>
-    <row r="941" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -9294,7 +9502,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="5"/>
     </row>
-    <row r="942" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -9303,7 +9511,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="5"/>
     </row>
-    <row r="943" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -9312,7 +9520,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="5"/>
     </row>
-    <row r="944" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -9321,7 +9529,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="5"/>
     </row>
-    <row r="945" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -9330,7 +9538,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="5"/>
     </row>
-    <row r="946" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -9339,7 +9547,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="5"/>
     </row>
-    <row r="947" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -9348,7 +9556,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="5"/>
     </row>
-    <row r="948" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -9357,7 +9565,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="5"/>
     </row>
-    <row r="949" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -9366,7 +9574,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="5"/>
     </row>
-    <row r="950" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -9375,7 +9583,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="5"/>
     </row>
-    <row r="951" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -9384,7 +9592,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="5"/>
     </row>
-    <row r="952" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -9393,7 +9601,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="5"/>
     </row>
-    <row r="953" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -9402,7 +9610,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="5"/>
     </row>
-    <row r="954" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -9411,7 +9619,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="5"/>
     </row>
-    <row r="955" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -9420,7 +9628,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="5"/>
     </row>
-    <row r="956" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -9429,7 +9637,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="5"/>
     </row>
-    <row r="957" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -9438,7 +9646,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="5"/>
     </row>
-    <row r="958" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -9447,7 +9655,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="5"/>
     </row>
-    <row r="959" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -9456,7 +9664,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="5"/>
     </row>
-    <row r="960" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -9465,7 +9673,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="5"/>
     </row>
-    <row r="961" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -9474,7 +9682,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="5"/>
     </row>
-    <row r="962" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -9483,7 +9691,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="5"/>
     </row>
-    <row r="963" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -9492,7 +9700,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="5"/>
     </row>
-    <row r="964" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -9501,7 +9709,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="5"/>
     </row>
-    <row r="965" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -9510,7 +9718,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="5"/>
     </row>
-    <row r="966" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -9519,7 +9727,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="5"/>
     </row>
-    <row r="967" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -9528,7 +9736,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="5"/>
     </row>
-    <row r="968" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -9537,7 +9745,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="5"/>
     </row>
-    <row r="969" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -9546,7 +9754,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="5"/>
     </row>
-    <row r="970" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -9555,7 +9763,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="5"/>
     </row>
-    <row r="971" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -9564,7 +9772,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="5"/>
     </row>
-    <row r="972" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -9573,7 +9781,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="5"/>
     </row>
-    <row r="973" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -9582,7 +9790,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="5"/>
     </row>
-    <row r="974" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -9591,7 +9799,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="5"/>
     </row>
-    <row r="975" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -9600,7 +9808,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="5"/>
     </row>
-    <row r="976" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -9609,7 +9817,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="5"/>
     </row>
-    <row r="977" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -9618,7 +9826,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="5"/>
     </row>
-    <row r="978" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -9627,7 +9835,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="5"/>
     </row>
-    <row r="979" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -9636,7 +9844,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="5"/>
     </row>
-    <row r="980" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -9645,7 +9853,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="5"/>
     </row>
-    <row r="981" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -9654,7 +9862,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="5"/>
     </row>
-    <row r="982" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -9663,7 +9871,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="5"/>
     </row>
-    <row r="983" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -9672,7 +9880,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="5"/>
     </row>
-    <row r="984" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -9681,7 +9889,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="5"/>
     </row>
-    <row r="985" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -9690,7 +9898,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="5"/>
     </row>
-    <row r="986" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -9699,7 +9907,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="5"/>
     </row>
-    <row r="987" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
